--- a/data/GDP.xlsx
+++ b/data/GDP.xlsx
@@ -7604,16 +7604,16 @@
         <v>5.3</v>
       </c>
       <c r="T9" s="130">
-        <v>1258647.3</v>
+        <v>1258647.29355423</v>
       </c>
       <c r="U9" s="132">
-        <v>701360.6</v>
+        <v>701360.58032137</v>
       </c>
       <c r="V9" s="134">
-        <v>530439.7</v>
+        <v>530439.72052622</v>
       </c>
       <c r="W9" s="136">
-        <v>26847</v>
+        <v>26846.99270663</v>
       </c>
       <c r="X9" s="138">
         <v>82.51311136</v>
@@ -7625,22 +7625,22 @@
         <v>-11.43013014</v>
       </c>
       <c r="AA9" s="144">
-        <v>5.9</v>
+        <v>5.9386721</v>
       </c>
       <c r="AB9" s="146">
-        <v>33.9</v>
+        <v>33.87863613</v>
       </c>
       <c r="AC9" s="148">
-        <v>60.2</v>
+        <v>60.18269176</v>
       </c>
       <c r="AD9" s="150">
-        <v>0.3</v>
+        <v>0.31175403</v>
       </c>
       <c r="AE9" s="152">
-        <v>1.8</v>
+        <v>1.77847861</v>
       </c>
       <c r="AF9" s="154">
-        <v>3.2</v>
+        <v>3.15932523</v>
       </c>
     </row>
     <row r="10">
@@ -7906,16 +7906,16 @@
         <v>2.3</v>
       </c>
       <c r="T13" s="318">
-        <v>1202471</v>
+        <v>1202470.97071874</v>
       </c>
       <c r="U13" s="320">
-        <v>643828</v>
+        <v>643827.835009</v>
       </c>
       <c r="V13" s="322">
-        <v>519793</v>
+        <v>519793.23871671</v>
       </c>
       <c r="W13" s="324">
-        <v>38850</v>
+        <v>38849.89699303</v>
       </c>
       <c r="X13" s="326">
         <v>39.4</v>
@@ -7927,22 +7927,22 @@
         <v>13.8</v>
       </c>
       <c r="AA13" s="332">
-        <v>10.8</v>
+        <v>10.82839844</v>
       </c>
       <c r="AB13" s="334">
-        <v>33.9</v>
+        <v>33.89617751</v>
       </c>
       <c r="AC13" s="336">
-        <v>55.3</v>
+        <v>55.27542405</v>
       </c>
       <c r="AD13" s="338">
-        <v>0.3</v>
+        <v>0.3195103</v>
       </c>
       <c r="AE13" s="340">
-        <v>1</v>
+        <v>1.00016432</v>
       </c>
       <c r="AF13" s="342">
-        <v>1.6</v>
+        <v>1.63099532</v>
       </c>
     </row>
     <row r="14">
